--- a/url-csv-scripts/companies_shorted-7.xlsx
+++ b/url-csv-scripts/companies_shorted-7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ishank Kumar\Desktop\CFG\my_scripts\url-csv-scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ishank Kumar\Desktop\CFG\codebase\Team-53\url-csv-scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457A90B4-A343-4B7C-A324-B0C28B89FC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C538A7-C038-46F9-9950-252573E32390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="38616" windowHeight="23496" xr2:uid="{B151D234-F11A-4434-956F-9B90D0E1A42B}"/>
   </bookViews>
@@ -39,27 +39,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>INFY</t>
-  </si>
-  <si>
-    <t>ICICIBANK</t>
-  </si>
-  <si>
     <t>TCS</t>
   </si>
   <si>
-    <t>HDFCBANK</t>
-  </si>
-  <si>
-    <t>BHARTIARTL</t>
-  </si>
-  <si>
-    <t>SBIN</t>
-  </si>
-  <si>
-    <t>LICI</t>
-  </si>
-  <si>
     <t>Sr. No.</t>
   </si>
   <si>
@@ -70,28 +52,46 @@
   </si>
   <si>
     <t>Tata Consultancy Services Limited</t>
-  </si>
-  <si>
-    <t>HDFC Bank Limited</t>
-  </si>
-  <si>
-    <t>ICICI Bank Limited</t>
-  </si>
-  <si>
-    <t>Bharti Airtel Limited</t>
-  </si>
-  <si>
-    <t>State Bank of India</t>
-  </si>
-  <si>
-    <t>Infosys Limited</t>
-  </si>
-  <si>
-    <t>Life Insurance Corporation Of India</t>
   </si>
   <si>
     <t>Market capitalization as on March 28, 2024
 (In lakhs)</t>
+  </si>
+  <si>
+    <t>HDFCBANK</t>
+  </si>
+  <si>
+    <t>HDFC Bank Limited</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>ICICI Bank Limited</t>
+  </si>
+  <si>
+    <t>BHARTIARTL</t>
+  </si>
+  <si>
+    <t>Bharti Airtel Limited</t>
+  </si>
+  <si>
+    <t>SBIN</t>
+  </si>
+  <si>
+    <t>State Bank of India</t>
+  </si>
+  <si>
+    <t>INFY</t>
+  </si>
+  <si>
+    <t>Infosys Limited</t>
+  </si>
+  <si>
+    <t>LICI</t>
+  </si>
+  <si>
+    <t>Life Insurance Corporation Of India</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -543,16 +543,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -560,10 +560,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2" s="7">
         <v>140247926.46023402</v>
@@ -574,10 +574,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="7">
         <v>109991524.325625</v>
@@ -588,10 +588,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
         <v>76765684.662094995</v>
@@ -602,10 +602,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
         <v>69478399.828022003</v>
@@ -616,10 +616,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7">
         <v>67144317.885449007</v>
@@ -630,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
@@ -644,10 +644,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
         <v>57946466.437711507</v>
